--- a/analise/analise-individual.xlsx
+++ b/analise/analise-individual.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DA0CBE-A4A4-49E2-8D6A-8623C0C2CD90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7A4353-7933-4B32-9711-63D437EDB03E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-3240" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="90%" sheetId="1" r:id="rId1"/>
     <sheet name="distintos" sheetId="2" r:id="rId2"/>
+    <sheet name="Systems" sheetId="3" r:id="rId3"/>
+    <sheet name="complexidade" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="noventa_por_cento_igual" localSheetId="0">'90%'!$A$1:$B$97</definedName>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t xml:space="preserve">       HeapSort</t>
   </si>
@@ -62,14 +64,110 @@
   <si>
     <t xml:space="preserve">      ShellSort</t>
   </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Linux 4.19.16-1-MANJARO 64-bit</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i3-7100 CPU @ 3.90GHz (4 CPUs), ~3.9GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10 Home Single Language 64-bit </t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-8550U CPU @ 1.80GHz (8 CPUs), ~2.0GHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 7 Starter 32-bit </t>
+  </si>
+  <si>
+    <t>AMD Athlon(tm) 64 X2 Dual-Core Processor TK-53 (2 CPUs), ~1.7GHz</t>
+  </si>
+  <si>
+    <t>Memory (RAM)</t>
+  </si>
+  <si>
+    <t>4096MB</t>
+  </si>
+  <si>
+    <t>8192MB</t>
+  </si>
+  <si>
+    <t>Ordenação</t>
+  </si>
+  <si>
+    <t>Melhor Caso</t>
+  </si>
+  <si>
+    <t>Pior Caso</t>
+  </si>
+  <si>
+    <t>HeapSort</t>
+  </si>
+  <si>
+    <t>QuickSort</t>
+  </si>
+  <si>
+    <t>RadixSort</t>
+  </si>
+  <si>
+    <t>ShellSort</t>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>n log n</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>log n</t>
+  </si>
+  <si>
+    <t>Caso Médio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -92,12 +190,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9034,7 +9258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1963BD6A-6881-4384-9B42-01BAF37956C0}">
   <dimension ref="A3:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
@@ -9760,4 +9984,160 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAF5941-7ABD-4DF1-9D13-C37475184D4D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B4E260-134D-46E4-863D-45E558612958}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>